--- a/fixed/10V_regulator/275nm_SU_CULBN2_16mA/production/ver_0p1_rev_2/CPL_JLCPCB_275nm_SU_CULBN2_16mA.xlsx
+++ b/fixed/10V_regulator/275nm_SU_CULBN2_16mA/production/ver_0p1_rev_2/CPL_JLCPCB_275nm_SU_CULBN2_16mA.xlsx
@@ -229,10 +229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,10 +286,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>65.4838</v>
+        <v>65.45</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-53.1876</v>
+        <v>-52.9648</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -297,6 +297,8 @@
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -354,10 +356,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>65.4542</v>
+        <v>65.775</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>-54.3052</v>
+        <v>-54.225</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -507,10 +509,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>65.4538</v>
+        <v>65.4602</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>-52.1208</v>
+        <v>-51.898</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>

--- a/fixed/10V_regulator/275nm_SU_CULBN2_16mA/production/ver_0p1_rev_2/CPL_JLCPCB_275nm_SU_CULBN2_16mA.xlsx
+++ b/fixed/10V_regulator/275nm_SU_CULBN2_16mA/production/ver_0p1_rev_2/CPL_JLCPCB_275nm_SU_CULBN2_16mA.xlsx
@@ -232,7 +232,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
